--- a/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_13_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_13_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,771 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_13_9_13</t>
+          <t>model_13_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9331375770305664</v>
+        <v>0.9901602921850124</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8361445985319524</v>
+        <v>0.7882036247466153</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8005083843744294</v>
+        <v>0.9885690085315072</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3534090954570244</v>
+        <v>0.9968541903905298</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8035687570652463</v>
+        <v>0.9972457363433135</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4471093302697514</v>
+        <v>0.06579817146651021</v>
       </c>
       <c r="H2" t="n">
-        <v>1.095701824101583</v>
+        <v>1.416283336552019</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6026780659436399</v>
+        <v>0.005516276363582241</v>
       </c>
       <c r="J2" t="n">
-        <v>1.041129651705675</v>
+        <v>0.03842066328643844</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8219038238461829</v>
+        <v>0.02196837336159989</v>
       </c>
       <c r="L2" t="n">
-        <v>1.330355273206733</v>
+        <v>0.6142265539753098</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6686623439896637</v>
+        <v>0.2565115425599991</v>
       </c>
       <c r="N2" t="n">
-        <v>1.018030316306364</v>
+        <v>1.008143206467576</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6971286842951745</v>
+        <v>0.267431769978873</v>
       </c>
       <c r="P2" t="n">
-        <v>227.6099042550836</v>
+        <v>111.4423264605995</v>
       </c>
       <c r="Q2" t="n">
-        <v>365.3428724651903</v>
+        <v>176.0427451786141</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_13_9_12</t>
+          <t>model_13_9_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9326574563135508</v>
+        <v>0.9915817067415468</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8361371124910386</v>
+        <v>0.7875195223903367</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8017155134099738</v>
+        <v>0.9855589599173932</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3531890685732766</v>
+        <v>0.9961082939158583</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8039622032108653</v>
+        <v>0.9965835969098554</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4503198997151877</v>
+        <v>0.05629316578195281</v>
       </c>
       <c r="H3" t="n">
-        <v>1.095751883291643</v>
+        <v>1.420857932158455</v>
       </c>
       <c r="I3" t="n">
-        <v>0.599031245047408</v>
+        <v>0.006968841529870493</v>
       </c>
       <c r="J3" t="n">
-        <v>1.041483935242967</v>
+        <v>0.04753050808239167</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8202575740606067</v>
+        <v>0.02724968557596627</v>
       </c>
       <c r="L3" t="n">
-        <v>1.343543932576892</v>
+        <v>0.5808985865934345</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6710587900588053</v>
+        <v>0.2372618085195188</v>
       </c>
       <c r="N3" t="n">
-        <v>1.018159787061514</v>
+        <v>1.006966863386306</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6996271520348066</v>
+        <v>0.2473625349078467</v>
       </c>
       <c r="P3" t="n">
-        <v>227.5955941210463</v>
+        <v>111.7543642810258</v>
       </c>
       <c r="Q3" t="n">
-        <v>365.328562331153</v>
+        <v>176.3547829990404</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_13_9_11</t>
+          <t>model_13_9_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9321641295803922</v>
+        <v>0.9926809679167427</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8361231466040651</v>
+        <v>0.7867423467147582</v>
       </c>
       <c r="D4" t="n">
-        <v>0.802917528182213</v>
+        <v>0.9825460770120036</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3529315990968971</v>
+        <v>0.9953528137019181</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8043465992752307</v>
+        <v>0.995914046638277</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4536187778513793</v>
+        <v>0.04894240124178586</v>
       </c>
       <c r="H4" t="n">
-        <v>1.095845273242143</v>
+        <v>1.426054909479614</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5953998746968443</v>
+        <v>0.008422774445755437</v>
       </c>
       <c r="J4" t="n">
-        <v>1.04189850820461</v>
+        <v>0.05675740179903078</v>
       </c>
       <c r="K4" t="n">
-        <v>0.818649191450727</v>
+        <v>0.03259010762114244</v>
       </c>
       <c r="L4" t="n">
-        <v>1.356803056542902</v>
+        <v>0.5513410967297807</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6735122700080373</v>
+        <v>0.2212292956228579</v>
       </c>
       <c r="N4" t="n">
-        <v>1.018292818989557</v>
+        <v>1.006057129999937</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7021850817048811</v>
+        <v>0.2306474847452979</v>
       </c>
       <c r="P4" t="n">
-        <v>227.5809962600917</v>
+        <v>112.0342223143145</v>
       </c>
       <c r="Q4" t="n">
-        <v>365.3139644701984</v>
+        <v>176.6346410323291</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_13_9_10</t>
+          <t>model_13_9_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.931657569357036</v>
+        <v>0.9935244496503128</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8361025757762135</v>
+        <v>0.7859124453662931</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8041150928059939</v>
+        <v>0.9795881674261108</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3526378900586766</v>
+        <v>0.9946038497442147</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8047224283154885</v>
+        <v>0.995251173235718</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4570061483974575</v>
+        <v>0.04330203500552548</v>
       </c>
       <c r="H5" t="n">
-        <v>1.095982830462706</v>
+        <v>1.431604463618144</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5917819485547379</v>
+        <v>0.009850178777151176</v>
       </c>
       <c r="J5" t="n">
-        <v>1.042371433490934</v>
+        <v>0.06590471063360784</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8170766548181356</v>
+        <v>0.0378772740707079</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37012984476733</v>
+        <v>0.5250628581262471</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6760222987427689</v>
+        <v>0.2080914102156201</v>
       </c>
       <c r="N5" t="n">
-        <v>1.018429419499226</v>
+        <v>1.005359076151465</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7048019675593261</v>
+        <v>0.216950292357102</v>
       </c>
       <c r="P5" t="n">
-        <v>227.5661168687093</v>
+        <v>112.2791112945198</v>
       </c>
       <c r="Q5" t="n">
-        <v>365.299085078816</v>
+        <v>176.8795300125344</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_13_9_9</t>
+          <t>model_13_9_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9311373726470098</v>
+        <v>0.9941654851244499</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8360751388018279</v>
+        <v>0.7850600846044478</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8053083045818861</v>
+        <v>0.976728699581042</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3523059715308657</v>
+        <v>0.993873401604136</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8050893166157507</v>
+        <v>0.9946053993893634</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4604847061926886</v>
+        <v>0.03901542783827391</v>
       </c>
       <c r="H6" t="n">
-        <v>1.096166301636758</v>
+        <v>1.437304203957364</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5881771726692913</v>
+        <v>0.01123007788123615</v>
       </c>
       <c r="J6" t="n">
-        <v>1.042905883046018</v>
+        <v>0.07482588054601541</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8155415278576544</v>
+        <v>0.04302805218500823</v>
       </c>
       <c r="L6" t="n">
-        <v>1.383511273708794</v>
+        <v>0.5016537411801001</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6785902343776313</v>
+        <v>0.1975232336670142</v>
       </c>
       <c r="N6" t="n">
-        <v>1.018569697263728</v>
+        <v>1.004828564034938</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7074792255305241</v>
+        <v>0.2059322066536807</v>
       </c>
       <c r="P6" t="n">
-        <v>227.5509512702925</v>
+        <v>112.4875962509581</v>
       </c>
       <c r="Q6" t="n">
-        <v>365.2839194803991</v>
+        <v>177.0880149689728</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_13_9_8</t>
+          <t>model_13_9_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9306031774453063</v>
+        <v>0.9946467395485934</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8360406398691769</v>
+        <v>0.7842076991125355</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8064968103996029</v>
+        <v>0.9739950355844436</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3519344580582359</v>
+        <v>0.9931697383012266</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8054468872287447</v>
+        <v>0.9939839627150601</v>
       </c>
       <c r="G7" t="n">
-        <v>0.464056871966223</v>
+        <v>0.03579727728805378</v>
       </c>
       <c r="H7" t="n">
-        <v>1.096396996158249</v>
+        <v>1.443004109666656</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5845866138112752</v>
+        <v>0.01254926757112224</v>
       </c>
       <c r="J7" t="n">
-        <v>1.043504087706252</v>
+        <v>0.08341991965973618</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8140453877848027</v>
+        <v>0.04798471377713422</v>
       </c>
       <c r="L7" t="n">
-        <v>1.396949682459101</v>
+        <v>0.4807720649730933</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6812171988185728</v>
+        <v>0.1892016841575512</v>
       </c>
       <c r="N7" t="n">
-        <v>1.018713749902389</v>
+        <v>1.004430284511509</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7102180252862825</v>
+        <v>0.1972563915536176</v>
       </c>
       <c r="P7" t="n">
-        <v>227.5354963307482</v>
+        <v>112.659766883748</v>
       </c>
       <c r="Q7" t="n">
-        <v>365.2684645408549</v>
+        <v>177.2601856017626</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_13_9_7</t>
+          <t>model_13_9_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9300548184496572</v>
+        <v>0.9950023529835778</v>
       </c>
       <c r="C8" t="n">
-        <v>0.835998851076034</v>
+        <v>0.7833714946345379</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8076806676567685</v>
+        <v>0.9714051609096076</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3515222990951683</v>
+        <v>0.9924986302760415</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8057949766312293</v>
+        <v>0.9933918321697298</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4677237510950888</v>
+        <v>0.03341928861086429</v>
       </c>
       <c r="H8" t="n">
-        <v>1.096676438010415</v>
+        <v>1.448595812861393</v>
       </c>
       <c r="I8" t="n">
-        <v>0.581010098578469</v>
+        <v>0.01379906856107277</v>
       </c>
       <c r="J8" t="n">
-        <v>1.044167739042284</v>
+        <v>0.09161635195075549</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8125889188103764</v>
+        <v>0.05270762578559129</v>
       </c>
       <c r="L8" t="n">
-        <v>1.410432342736493</v>
+        <v>0.4621134851841638</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6839033199912754</v>
+        <v>0.1828094324997052</v>
       </c>
       <c r="N8" t="n">
-        <v>1.018861621991104</v>
+        <v>1.004135983737729</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7130185001983445</v>
+        <v>0.190592008508912</v>
       </c>
       <c r="P8" t="n">
-        <v>227.5197548655669</v>
+        <v>112.7972440847421</v>
       </c>
       <c r="Q8" t="n">
-        <v>365.2527230756736</v>
+        <v>177.3976628027567</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_13_9_6</t>
+          <t>model_13_9_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9294920153014339</v>
+        <v>0.9952595788732669</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8359495865699451</v>
+        <v>0.7825630814300151</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8088603315000725</v>
+        <v>0.968970511797747</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3510693672024142</v>
+        <v>0.9918637114015736</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8061337062909878</v>
+        <v>0.9928320642168907</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4714872183387284</v>
+        <v>0.03169921790209652</v>
       </c>
       <c r="H9" t="n">
-        <v>1.097005869989473</v>
+        <v>1.454001675682438</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5774462519410219</v>
+        <v>0.01497396204134443</v>
       </c>
       <c r="J9" t="n">
-        <v>1.044897042254619</v>
+        <v>0.09937079589952513</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8111716126912166</v>
+        <v>0.05717240945071846</v>
       </c>
       <c r="L9" t="n">
-        <v>1.423949986517078</v>
+        <v>0.4454295244489313</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6866492687964711</v>
+        <v>0.1780427417843719</v>
       </c>
       <c r="N9" t="n">
-        <v>1.019013389132198</v>
+        <v>1.003923107139365</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7158813497290749</v>
+        <v>0.1856223899014168</v>
       </c>
       <c r="P9" t="n">
-        <v>227.5037265715671</v>
+        <v>112.9029265405228</v>
       </c>
       <c r="Q9" t="n">
-        <v>365.2366947816737</v>
+        <v>177.5033452585375</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_13_9_5</t>
+          <t>model_13_9_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9289143697636049</v>
+        <v>0.9954402177343254</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8358925734562087</v>
+        <v>0.7817902775728741</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8100356738617567</v>
+        <v>0.9666950110475497</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3505734409284712</v>
+        <v>0.991267067301655</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8064625867176334</v>
+        <v>0.9923064716819028</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4753499367100043</v>
+        <v>0.03049128500643238</v>
       </c>
       <c r="H10" t="n">
-        <v>1.09738711694355</v>
+        <v>1.459169418633575</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5738954608005511</v>
+        <v>0.01607205497914643</v>
       </c>
       <c r="J10" t="n">
-        <v>1.045695574286595</v>
+        <v>0.1066577791917747</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8097955175435729</v>
+        <v>0.06136460543626047</v>
       </c>
       <c r="L10" t="n">
-        <v>1.437495147804425</v>
+        <v>0.4304891056790381</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6894562616366642</v>
+        <v>0.1746175392291175</v>
       </c>
       <c r="N10" t="n">
-        <v>1.019169158715432</v>
+        <v>1.003773612909524</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7188078420657513</v>
+        <v>0.1820513693822385</v>
       </c>
       <c r="P10" t="n">
-        <v>227.4874080746422</v>
+        <v>112.9806287473871</v>
       </c>
       <c r="Q10" t="n">
-        <v>365.2203762847489</v>
+        <v>177.5810474654017</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_13_9_4</t>
+          <t>model_13_9_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9283217324801603</v>
+        <v>0.995561549062326</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8358275821504655</v>
+        <v>0.7810581382081592</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8112069820467553</v>
+        <v>0.9645794380469511</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3500344480644284</v>
+        <v>0.9907094708144838</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8067817592886457</v>
+        <v>0.9918155338550471</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4793129049532426</v>
+        <v>0.0296799418574138</v>
       </c>
       <c r="H11" t="n">
-        <v>1.097821714104312</v>
+        <v>1.464065237936615</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5703568571888391</v>
+        <v>0.01709297126368754</v>
       </c>
       <c r="J11" t="n">
-        <v>1.04656345140777</v>
+        <v>0.113467862935818</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8084600418185171</v>
+        <v>0.06528039085916924</v>
       </c>
       <c r="L11" t="n">
-        <v>1.45105874808104</v>
+        <v>0.4171055046856338</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6923242773103098</v>
+        <v>0.1722786749932034</v>
       </c>
       <c r="N11" t="n">
-        <v>1.019328971016586</v>
+        <v>1.003673200776006</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7217979551042348</v>
+        <v>0.1796129348536851</v>
       </c>
       <c r="P11" t="n">
-        <v>227.4708032971895</v>
+        <v>113.0345676393338</v>
       </c>
       <c r="Q11" t="n">
-        <v>365.2037715072962</v>
+        <v>177.6349863573484</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_13_9_3</t>
+          <t>model_13_9_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9277137579240498</v>
+        <v>0.9956373372389418</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8357543814699518</v>
+        <v>0.7803695616284501</v>
       </c>
       <c r="D12" t="n">
-        <v>0.812374105915359</v>
+        <v>0.9626210711507228</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3494525296863742</v>
+        <v>0.9901908736296072</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8070910987395608</v>
+        <v>0.9913592127661964</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4833784336094187</v>
+        <v>0.02917314597141146</v>
       </c>
       <c r="H12" t="n">
-        <v>1.098311207391965</v>
+        <v>1.468669752695733</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5668308946884053</v>
+        <v>0.0180380242847367</v>
       </c>
       <c r="J12" t="n">
-        <v>1.047500446459831</v>
+        <v>0.1198016371608876</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8071657096452081</v>
+        <v>0.06892006857422948</v>
       </c>
       <c r="L12" t="n">
-        <v>1.464625331000835</v>
+        <v>0.40511143645352</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6952542222880913</v>
+        <v>0.1708014811745245</v>
       </c>
       <c r="N12" t="n">
-        <v>1.019492919211492</v>
+        <v>1.003610479526393</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7248526339055429</v>
+        <v>0.1780728538359324</v>
       </c>
       <c r="P12" t="n">
-        <v>227.4539108513456</v>
+        <v>113.0690133027331</v>
       </c>
       <c r="Q12" t="n">
-        <v>365.1868790614522</v>
+        <v>177.6694320207477</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_13_9_2</t>
+          <t>model_13_9_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9270901891766896</v>
+        <v>0.995678491795062</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8356727114320378</v>
+        <v>0.7797258048124331</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8135373769882832</v>
+        <v>0.9608131357720472</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3488257337963313</v>
+        <v>0.9897103799971152</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8073904672570424</v>
+        <v>0.9909366867067504</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4875482406942862</v>
+        <v>0.02889794526513663</v>
       </c>
       <c r="H13" t="n">
-        <v>1.098857335311552</v>
+        <v>1.472974557488666</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5633165717520771</v>
+        <v>0.01891048326817317</v>
       </c>
       <c r="J13" t="n">
-        <v>1.048509702516645</v>
+        <v>0.1256700419142067</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8059130976595521</v>
+        <v>0.07229019263856185</v>
       </c>
       <c r="L13" t="n">
-        <v>1.478187433876814</v>
+        <v>0.3943421035908077</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6982465472125775</v>
+        <v>0.1699939565547453</v>
       </c>
       <c r="N13" t="n">
-        <v>1.019661072581567</v>
+        <v>1.003576420583397</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7279723482970309</v>
+        <v>0.1772309512212827</v>
       </c>
       <c r="P13" t="n">
-        <v>227.4367320763393</v>
+        <v>113.087969568967</v>
       </c>
       <c r="Q13" t="n">
-        <v>365.169700286446</v>
+        <v>177.6883882869816</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_13_9_1</t>
+          <t>model_13_9_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9264507076067067</v>
+        <v>0.9956935804437779</v>
       </c>
       <c r="C14" t="n">
-        <v>0.835582285508623</v>
+        <v>0.7791269483159693</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8146971398027855</v>
+        <v>0.9591510786850519</v>
       </c>
       <c r="E14" t="n">
-        <v>0.348153863935403</v>
+        <v>0.9892668273235783</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8076798682230335</v>
+        <v>0.9905468000953369</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4918244568973036</v>
+        <v>0.02879704740169595</v>
       </c>
       <c r="H14" t="n">
-        <v>1.0994620138778</v>
+        <v>1.476979113638001</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5598128475088011</v>
+        <v>0.01971254547329223</v>
       </c>
       <c r="J14" t="n">
-        <v>1.049591535912978</v>
+        <v>0.1310872762784416</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8047021917108896</v>
+        <v>0.07539998012293217</v>
       </c>
       <c r="L14" t="n">
-        <v>1.491731673423184</v>
+        <v>0.384684929331189</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7013019726888722</v>
+        <v>0.1696969280856196</v>
       </c>
       <c r="N14" t="n">
-        <v>1.019833517049877</v>
+        <v>1.003563933425839</v>
       </c>
       <c r="O14" t="n">
-        <v>0.7311578495614541</v>
+        <v>0.1769212776352926</v>
       </c>
       <c r="P14" t="n">
-        <v>227.4192668421609</v>
+        <v>113.0949648357406</v>
       </c>
       <c r="Q14" t="n">
-        <v>365.1522350522676</v>
+        <v>177.6953835537552</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_13_9_0</t>
+          <t>model_13_9_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9257950162144957</v>
+        <v>0.995689391771743</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8354829042669278</v>
+        <v>0.778572193443435</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8158534611860778</v>
+        <v>0.9576261569780773</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3474353929656686</v>
+        <v>0.9888585351859777</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8079590783120938</v>
+        <v>0.9901880391580271</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4962090682561998</v>
+        <v>0.0288250570708806</v>
       </c>
       <c r="H15" t="n">
-        <v>1.100126576698625</v>
+        <v>1.480688762025049</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5563195200689155</v>
+        <v>0.02044842998442004</v>
       </c>
       <c r="J15" t="n">
-        <v>1.050748405620276</v>
+        <v>0.1360738637356199</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8035339262332271</v>
+        <v>0.07826150508959452</v>
       </c>
       <c r="L15" t="n">
-        <v>1.50524629189512</v>
+        <v>0.3760126639062185</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7044210873165282</v>
+        <v>0.1697794365371749</v>
       </c>
       <c r="N15" t="n">
-        <v>1.020010332706203</v>
+        <v>1.00356739991304</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7344097513562668</v>
+        <v>0.1770072986424467</v>
       </c>
       <c r="P15" t="n">
-        <v>227.4015158649719</v>
+        <v>113.0930204658397</v>
       </c>
       <c r="Q15" t="n">
-        <v>365.1344840750785</v>
+        <v>177.6934391838543</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_14</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9956712163564366</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7780601687518607</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9562303084575328</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.988483582121634</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9898587932354607</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.02894659615672426</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.484112673495263</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.02112202739040569</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.140653271653377</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.08088761437189443</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.3682214148404382</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.1701369923230226</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.003582441636052</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.1773800763183405</v>
+      </c>
+      <c r="P16" t="n">
+        <v>113.0846053170004</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>177.685024035015</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_15</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9956431998378561</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7775890351525854</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9549546035036423</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.988140187676473</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9895573046990754</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0291339427454766</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.487263146042987</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.02173764687568372</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.1448472452213399</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.08329232704908257</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.3612226566574807</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.1706866800470283</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.003605627720395</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.1779531653867675</v>
+      </c>
+      <c r="P17" t="n">
+        <v>113.0717027343412</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>177.6721214523558</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_16</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9956085359528355</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7771565658398296</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9537914134070139</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9878262370502862</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9892817739372902</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02936574030422148</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.490155070328724</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.02229896984176847</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1486816130931212</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.08548999706255711</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.354936533246703</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.1713643495719617</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.003634315073515</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.1786596847063466</v>
+      </c>
+      <c r="P18" t="n">
+        <v>113.0558531597946</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>177.6562718778093</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_17</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9955697007020654</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7767606031795122</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9527326037159493</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9875398080772987</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9890304128564313</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02962543180494081</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.492802874461507</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.02280992174724843</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.1521798512234595</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.08749488648535397</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.349281946175665</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.1721203991540247</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.003666454591394</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.1794479208843565</v>
+      </c>
+      <c r="P19" t="n">
+        <v>113.0382442078777</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>177.6386629258923</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_18</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9955285307054331</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7763987145848181</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9517698950832061</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9872787186873418</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9888014064743533</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02990073576199157</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.49522282516057</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.02327449797324382</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.155368609853032</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.0893214718565344</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.3442037700149926</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.1729182921555484</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.003700526312745</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.1802797818428211</v>
+      </c>
+      <c r="P20" t="n">
+        <v>113.0197443829276</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>177.6201631009422</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_19</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9954864447513219</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.776068578333313</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9508943313709407</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9870411017172703</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9885929994777726</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03018216473092179</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.497430447794522</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.02369702050106586</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.158270693173898</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.09098375378838225</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.339635596693121</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.1737301491708385</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.003735356067871</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.1811262012920279</v>
+      </c>
+      <c r="P21" t="n">
+        <v>113.0010082017626</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>177.6014269197773</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_20</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9954445047221474</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7757678428901699</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.950099795329594</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9868251962192531</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9884036572605871</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03046261789912695</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.49944146708758</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.02408044134404136</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.1609076081404103</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.09249397250333596</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.3355295774967304</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.1745354345086606</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.003770065057533</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.1819657692938516</v>
+      </c>
+      <c r="P22" t="n">
+        <v>112.9825099794692</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>177.5829286974838</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_21</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9954034581420959</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.775494262057402</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9493804785045934</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9866291229925109</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9882317385545762</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03073709656893442</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.501270903376022</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.02442756349968419</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.1633023059636574</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.09386521897508146</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.3318299604596408</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.1753199833702206</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.003804034641024</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.1827837180246882</v>
+      </c>
+      <c r="P23" t="n">
+        <v>112.9645699931416</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>177.5649887111562</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_22</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9953638278857834</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7752456759586979</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9487277915323862</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9864511709573576</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9880757824041171</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03100210427537632</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.50293319976269</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.02474253195430411</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.1654756845442238</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.09510914598003857</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.3285134441911628</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.1760741442556979</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.003836832094524</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.1835699851003885</v>
+      </c>
+      <c r="P24" t="n">
+        <v>112.9474003938998</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>177.5478191119144</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_23</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9953260166873336</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7750200065520656</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9481375029907285</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9862899347136777</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9879344555326985</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.03125494793351473</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.504442252123953</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.02502738867377717</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.1674449084315646</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.09623638790904335</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3255246632556</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.1767906896120798</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.003868124120827</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.184317035276045</v>
+      </c>
+      <c r="P25" t="n">
+        <v>112.9311551629215</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>177.5315738809361</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9952902201625269</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7748153405071406</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.947602958970605</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9861438304019431</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9878064970510617</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03149431945972476</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.505810854908766</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0252853446482549</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.1692293217504611</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.09725700178257629</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.3228339731284426</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.1774663896621689</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.003897748831012</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.1850215012761583</v>
+      </c>
+      <c r="P26" t="n">
+        <v>112.9158961680494</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>177.516314886064</v>
       </c>
     </row>
   </sheetData>
